--- a/demo_backend/static/data/data.xlsx
+++ b/demo_backend/static/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="11140" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="2015" sheetId="9" r:id="rId7"/>
     <sheet name="2016" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -613,64 +613,64 @@
     <t>三江乡长乐村</t>
   </si>
   <si>
-    <t>人均收入 - 五千以下</t>
+    <t>category</t>
   </si>
   <si>
-    <t>人均收入 - 五千到一万</t>
+    <t>average_income_per_capita - below_5k</t>
   </si>
   <si>
-    <t>人均收入 - 一万到万五</t>
+    <t>average_income_per_capita - 5k_10k</t>
   </si>
   <si>
-    <t>人均收入 - 万五到两万</t>
+    <t>average_income_per_capita - 10k_15k</t>
   </si>
   <si>
-    <t>人均收入 - 两万到两万五</t>
+    <t>average_income_per_capita - 15k_20k</t>
   </si>
   <si>
-    <t>人均收入 - 两万五以上</t>
+    <t>average_income_per_capita - 20k_25k</t>
   </si>
   <si>
-    <t>家庭现有林地面积 - 五十亩以下</t>
+    <t>average_income_per_capita - above_25k</t>
   </si>
   <si>
-    <t>家庭现有林地面积 - 五十亩到一百亩</t>
+    <t>forest_area - below_50mu</t>
   </si>
   <si>
-    <t>家庭现有林地面积 - 一百亩到一百五十亩</t>
+    <t>forest_area - 50_100mu</t>
   </si>
   <si>
-    <t>家庭现有林地面积 - 一百五十亩以上</t>
+    <t>forest_area - 100_150mu</t>
   </si>
   <si>
-    <t>种植面积 - 两亩以下</t>
+    <t>forest_area - above_150mu</t>
   </si>
   <si>
-    <t>种植面积 - 两到四亩</t>
+    <t>planting_area - below_2mu</t>
   </si>
   <si>
-    <t>种植面积 - 四到六亩</t>
+    <t>planting_area - 2_4mu</t>
   </si>
   <si>
-    <t>种植面积 - 六亩以上</t>
+    <t>planting_area - 4_6mu</t>
   </si>
   <si>
-    <t>造林株数 - 五百棵以下</t>
+    <t>planting_area - above_6mu</t>
   </si>
   <si>
-    <t>造林株数 - 五百到一千棵</t>
+    <t>number_of_trees - below_500</t>
   </si>
   <si>
-    <t>造林株数 - 一千到一千五棵</t>
+    <t>number_of_trees - 500_1000</t>
   </si>
   <si>
-    <t>造林株数 - 一千五到两千五棵</t>
+    <t>number_of_trees - 1000-1500</t>
   </si>
   <si>
-    <t>造林株数 - 两千五棵以上</t>
+    <t>number_of_trees - 1500-2500</t>
   </si>
   <si>
-    <t>category</t>
+    <t>number_of_trees - above_2500</t>
   </si>
 </sst>
 </file>
@@ -936,7 +936,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="308">
+  <cellStyleXfs count="312">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1245,8 +1245,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1417,6 +1421,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1432,23 +1445,8 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="308">
+  <cellStyles count="312">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1602,6 +1600,8 @@
     <cellStyle name="Followed Hyperlink" xfId="303" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="305" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="311" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1755,11 +1755,21 @@
     <cellStyle name="Hyperlink" xfId="302" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="304" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="306" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="308" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="310" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2087,7 +2097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CE151"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C152" sqref="C152"/>
     </sheetView>
   </sheetViews>
@@ -2100,8 +2110,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:83" s="2" customFormat="1">
-      <c r="B1" s="68"/>
-      <c r="C1" s="69"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="72"/>
       <c r="D1" s="45" t="s">
         <v>0</v>
       </c>
@@ -2337,8 +2347,8 @@
       <c r="CE1" s="1"/>
     </row>
     <row r="2" spans="1:83" s="2" customFormat="1">
-      <c r="B2" s="70"/>
-      <c r="C2" s="71"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="74"/>
       <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
@@ -7266,8 +7276,8 @@
       <c r="CC21" s="14"/>
     </row>
     <row r="22" spans="1:83" s="2" customFormat="1">
-      <c r="B22" s="68"/>
-      <c r="C22" s="69"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="72"/>
       <c r="D22" s="61" t="s">
         <v>0</v>
       </c>
@@ -7503,8 +7513,8 @@
       <c r="CE22" s="1"/>
     </row>
     <row r="23" spans="1:83" s="2" customFormat="1">
-      <c r="B23" s="70"/>
-      <c r="C23" s="71"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="74"/>
       <c r="D23" s="24" t="s">
         <v>10</v>
       </c>
@@ -12433,8 +12443,8 @@
       <c r="CC42" s="14"/>
     </row>
     <row r="43" spans="1:83" s="2" customFormat="1">
-      <c r="B43" s="68"/>
-      <c r="C43" s="69"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="72"/>
       <c r="D43" s="61" t="s">
         <v>0</v>
       </c>
@@ -12670,8 +12680,8 @@
       <c r="CE43" s="1"/>
     </row>
     <row r="44" spans="1:83" s="2" customFormat="1">
-      <c r="B44" s="70"/>
-      <c r="C44" s="71"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="74"/>
       <c r="D44" s="24" t="s">
         <v>10</v>
       </c>
@@ -17523,8 +17533,8 @@
       <c r="CC63" s="14"/>
     </row>
     <row r="64" spans="1:83" s="2" customFormat="1">
-      <c r="B64" s="68"/>
-      <c r="C64" s="69"/>
+      <c r="B64" s="71"/>
+      <c r="C64" s="72"/>
       <c r="D64" s="61" t="s">
         <v>0</v>
       </c>
@@ -17760,8 +17770,8 @@
       <c r="CE64" s="1"/>
     </row>
     <row r="65" spans="1:81" s="2" customFormat="1">
-      <c r="B65" s="70"/>
-      <c r="C65" s="71"/>
+      <c r="B65" s="73"/>
+      <c r="C65" s="74"/>
       <c r="D65" s="24" t="s">
         <v>10</v>
       </c>
@@ -22613,8 +22623,8 @@
       <c r="CC84" s="14"/>
     </row>
     <row r="85" spans="1:83" s="2" customFormat="1">
-      <c r="B85" s="68"/>
-      <c r="C85" s="69"/>
+      <c r="B85" s="71"/>
+      <c r="C85" s="72"/>
       <c r="D85" s="61" t="s">
         <v>0</v>
       </c>
@@ -22850,8 +22860,8 @@
       <c r="CE85" s="1"/>
     </row>
     <row r="86" spans="1:83" s="2" customFormat="1">
-      <c r="B86" s="70"/>
-      <c r="C86" s="71"/>
+      <c r="B86" s="73"/>
+      <c r="C86" s="74"/>
       <c r="D86" s="24" t="s">
         <v>10</v>
       </c>
@@ -27703,8 +27713,8 @@
       <c r="CC105" s="14"/>
     </row>
     <row r="106" spans="1:83" s="2" customFormat="1">
-      <c r="B106" s="68"/>
-      <c r="C106" s="69"/>
+      <c r="B106" s="71"/>
+      <c r="C106" s="72"/>
       <c r="D106" s="61" t="s">
         <v>0</v>
       </c>
@@ -27940,8 +27950,8 @@
       <c r="CE106" s="1"/>
     </row>
     <row r="107" spans="1:83" s="2" customFormat="1">
-      <c r="B107" s="70"/>
-      <c r="C107" s="71"/>
+      <c r="B107" s="73"/>
+      <c r="C107" s="74"/>
       <c r="D107" s="24" t="s">
         <v>10</v>
       </c>
@@ -32793,8 +32803,8 @@
       <c r="CC126" s="14"/>
     </row>
     <row r="127" spans="1:81" s="42" customFormat="1">
-      <c r="B127" s="68"/>
-      <c r="C127" s="69"/>
+      <c r="B127" s="71"/>
+      <c r="C127" s="72"/>
       <c r="D127" s="61" t="s">
         <v>0</v>
       </c>
@@ -32921,17 +32931,17 @@
       <c r="AS127" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="AT127" s="72" t="s">
+      <c r="AT127" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="AU127" s="72"/>
-      <c r="AV127" s="72"/>
-      <c r="AW127" s="72"/>
-      <c r="AX127" s="72"/>
-      <c r="AY127" s="72"/>
-      <c r="AZ127" s="72"/>
-      <c r="BA127" s="72"/>
-      <c r="BB127" s="72"/>
+      <c r="AU127" s="75"/>
+      <c r="AV127" s="75"/>
+      <c r="AW127" s="75"/>
+      <c r="AX127" s="75"/>
+      <c r="AY127" s="75"/>
+      <c r="AZ127" s="75"/>
+      <c r="BA127" s="75"/>
+      <c r="BB127" s="75"/>
       <c r="BC127" s="62" t="s">
         <v>6</v>
       </c>
@@ -33013,8 +33023,8 @@
       <c r="CC127" s="14"/>
     </row>
     <row r="128" spans="1:81" s="2" customFormat="1">
-      <c r="B128" s="70"/>
-      <c r="C128" s="71"/>
+      <c r="B128" s="73"/>
+      <c r="C128" s="74"/>
       <c r="D128" s="24" t="s">
         <v>10</v>
       </c>
@@ -38211,18 +38221,18 @@
   <dimension ref="A1:BZ20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A15"/>
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="36.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:78">
-      <c r="A1" s="74" t="s">
-        <v>206</v>
+      <c r="A1" s="69" t="s">
+        <v>187</v>
       </c>
       <c r="B1" s="67" t="s">
         <v>110</v>
@@ -38457,8 +38467,8 @@
       </c>
     </row>
     <row r="2" spans="1:78">
-      <c r="A2" s="76" t="s">
-        <v>187</v>
+      <c r="A2" t="s">
+        <v>188</v>
       </c>
       <c r="B2" s="13">
         <v>0.4696275411111111</v>
@@ -38693,8 +38703,8 @@
       </c>
     </row>
     <row r="3" spans="1:78">
-      <c r="A3" s="76" t="s">
-        <v>188</v>
+      <c r="A3" s="43" t="s">
+        <v>189</v>
       </c>
       <c r="B3" s="13">
         <v>0.49733987767634846</v>
@@ -38929,8 +38939,8 @@
       </c>
     </row>
     <row r="4" spans="1:78">
-      <c r="A4" s="76" t="s">
-        <v>189</v>
+      <c r="A4" s="43" t="s">
+        <v>190</v>
       </c>
       <c r="B4" s="13">
         <v>9.8712778008298779E-2</v>
@@ -39165,8 +39175,8 @@
       </c>
     </row>
     <row r="5" spans="1:78">
-      <c r="A5" s="76" t="s">
-        <v>190</v>
+      <c r="A5" s="43" t="s">
+        <v>191</v>
       </c>
       <c r="B5" s="16">
         <v>1.38190538E-2</v>
@@ -39401,8 +39411,8 @@
       </c>
     </row>
     <row r="6" spans="1:78">
-      <c r="A6" s="76" t="s">
-        <v>191</v>
+      <c r="A6" s="43" t="s">
+        <v>192</v>
       </c>
       <c r="B6" s="13">
         <v>1.5179714764868606E-2</v>
@@ -39637,8 +39647,8 @@
       </c>
     </row>
     <row r="7" spans="1:78">
-      <c r="A7" s="76" t="s">
-        <v>192</v>
+      <c r="A7" s="43" t="s">
+        <v>193</v>
       </c>
       <c r="B7" s="13">
         <v>5.9165210119870894E-3</v>
@@ -39873,8 +39883,8 @@
       </c>
     </row>
     <row r="8" spans="1:78">
-      <c r="A8" s="76" t="s">
-        <v>193</v>
+      <c r="A8" t="s">
+        <v>194</v>
       </c>
       <c r="B8" s="19">
         <f>1-B9-B10-B11</f>
@@ -40186,8 +40196,8 @@
       </c>
     </row>
     <row r="9" spans="1:78">
-      <c r="A9" s="76" t="s">
-        <v>194</v>
+      <c r="A9" t="s">
+        <v>195</v>
       </c>
       <c r="B9" s="19">
         <v>0.10515338</v>
@@ -40422,8 +40432,8 @@
       </c>
     </row>
     <row r="10" spans="1:78">
-      <c r="A10" s="76" t="s">
-        <v>195</v>
+      <c r="A10" t="s">
+        <v>196</v>
       </c>
       <c r="B10" s="19">
         <v>2.4950417027522907E-2</v>
@@ -40658,8 +40668,8 @@
       </c>
     </row>
     <row r="11" spans="1:78">
-      <c r="A11" s="76" t="s">
-        <v>196</v>
+      <c r="A11" t="s">
+        <v>197</v>
       </c>
       <c r="B11" s="19">
         <v>2.7943680762333341E-2</v>
@@ -40894,8 +40904,8 @@
       </c>
     </row>
     <row r="12" spans="1:78">
-      <c r="A12" s="76" t="s">
-        <v>197</v>
+      <c r="A12" t="s">
+        <v>198</v>
       </c>
       <c r="B12" s="19">
         <v>0.27934504526673043</v>
@@ -41130,8 +41140,8 @@
       </c>
     </row>
     <row r="13" spans="1:78">
-      <c r="A13" s="76" t="s">
-        <v>198</v>
+      <c r="A13" t="s">
+        <v>199</v>
       </c>
       <c r="B13" s="19">
         <v>0.40764897586242188</v>
@@ -41366,8 +41376,8 @@
       </c>
     </row>
     <row r="14" spans="1:78">
-      <c r="A14" s="76" t="s">
-        <v>199</v>
+      <c r="A14" t="s">
+        <v>200</v>
       </c>
       <c r="B14" s="19">
         <v>0.25306742888335459</v>
@@ -41602,8 +41612,8 @@
       </c>
     </row>
     <row r="15" spans="1:78">
-      <c r="A15" s="76" t="s">
-        <v>200</v>
+      <c r="A15" t="s">
+        <v>201</v>
       </c>
       <c r="B15" s="19">
         <v>5.9938549987493067E-2</v>
@@ -41838,8 +41848,8 @@
       </c>
     </row>
     <row r="16" spans="1:78">
-      <c r="A16" s="76" t="s">
-        <v>201</v>
+      <c r="A16" t="s">
+        <v>202</v>
       </c>
       <c r="B16" s="19">
         <v>0.1986650263752737</v>
@@ -42074,8 +42084,8 @@
       </c>
     </row>
     <row r="17" spans="1:78">
-      <c r="A17" s="76" t="s">
-        <v>202</v>
+      <c r="A17" t="s">
+        <v>203</v>
       </c>
       <c r="B17" s="19">
         <v>0.45530372155226556</v>
@@ -42310,8 +42320,8 @@
       </c>
     </row>
     <row r="18" spans="1:78">
-      <c r="A18" s="76" t="s">
-        <v>203</v>
+      <c r="A18" t="s">
+        <v>204</v>
       </c>
       <c r="B18" s="19">
         <v>0.27102653306190116</v>
@@ -42546,8 +42556,8 @@
       </c>
     </row>
     <row r="19" spans="1:78">
-      <c r="A19" s="76" t="s">
-        <v>204</v>
+      <c r="A19" t="s">
+        <v>205</v>
       </c>
       <c r="B19" s="19">
         <v>5.4433997404781137E-2</v>
@@ -42782,8 +42792,8 @@
       </c>
     </row>
     <row r="20" spans="1:78">
-      <c r="A20" s="76" t="s">
-        <v>205</v>
+      <c r="A20" t="s">
+        <v>206</v>
       </c>
       <c r="B20" s="19">
         <v>2.0570721605778459E-2</v>
@@ -43033,253 +43043,253 @@
   <dimension ref="A1:BZ20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="36.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:78">
-      <c r="A1" s="74" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" s="73" t="s">
+      <c r="A1" s="69" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="73" t="s">
+      <c r="G1" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="73" t="s">
+      <c r="H1" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="I1" s="73" t="s">
+      <c r="I1" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="J1" s="73" t="s">
+      <c r="J1" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="73" t="s">
+      <c r="K1" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="L1" s="73" t="s">
+      <c r="L1" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="M1" s="73" t="s">
+      <c r="M1" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="N1" s="73" t="s">
+      <c r="N1" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="O1" s="73" t="s">
+      <c r="O1" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="P1" s="73" t="s">
+      <c r="P1" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="Q1" s="73" t="s">
+      <c r="Q1" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="R1" s="73" t="s">
+      <c r="R1" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="S1" s="73" t="s">
+      <c r="S1" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="T1" s="73" t="s">
+      <c r="T1" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="U1" s="73" t="s">
+      <c r="U1" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="V1" s="73" t="s">
+      <c r="V1" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="W1" s="73" t="s">
+      <c r="W1" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="X1" s="73" t="s">
+      <c r="X1" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="Y1" s="73" t="s">
+      <c r="Y1" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="Z1" s="73" t="s">
+      <c r="Z1" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="AA1" s="73" t="s">
+      <c r="AA1" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="AB1" s="73" t="s">
+      <c r="AB1" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="AC1" s="73" t="s">
+      <c r="AC1" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="AD1" s="73" t="s">
+      <c r="AD1" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="AE1" s="73" t="s">
+      <c r="AE1" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="AF1" s="73" t="s">
+      <c r="AF1" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="AG1" s="73" t="s">
+      <c r="AG1" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="AH1" s="73" t="s">
+      <c r="AH1" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="AI1" s="73" t="s">
+      <c r="AI1" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="AJ1" s="73" t="s">
+      <c r="AJ1" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="AK1" s="73" t="s">
+      <c r="AK1" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="AL1" s="73" t="s">
+      <c r="AL1" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="AM1" s="73" t="s">
+      <c r="AM1" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="AN1" s="73" t="s">
+      <c r="AN1" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="AO1" s="73" t="s">
+      <c r="AO1" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="AP1" s="73" t="s">
+      <c r="AP1" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="AQ1" s="73" t="s">
+      <c r="AQ1" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="AR1" s="73" t="s">
+      <c r="AR1" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="AS1" s="73" t="s">
+      <c r="AS1" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="AT1" s="73" t="s">
+      <c r="AT1" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="AU1" s="73" t="s">
+      <c r="AU1" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="AV1" s="73" t="s">
+      <c r="AV1" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="AW1" s="73" t="s">
+      <c r="AW1" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="AX1" s="73" t="s">
+      <c r="AX1" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="AY1" s="73" t="s">
+      <c r="AY1" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="AZ1" s="73" t="s">
+      <c r="AZ1" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="BA1" s="73" t="s">
+      <c r="BA1" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="BB1" s="73" t="s">
+      <c r="BB1" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="BC1" s="73" t="s">
+      <c r="BC1" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="BD1" s="73" t="s">
+      <c r="BD1" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="BE1" s="73" t="s">
+      <c r="BE1" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="BF1" s="73" t="s">
+      <c r="BF1" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="BG1" s="73" t="s">
+      <c r="BG1" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="BH1" s="73" t="s">
+      <c r="BH1" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="BI1" s="73" t="s">
+      <c r="BI1" s="68" t="s">
         <v>169</v>
       </c>
-      <c r="BJ1" s="73" t="s">
+      <c r="BJ1" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="BK1" s="73" t="s">
+      <c r="BK1" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="BL1" s="73" t="s">
+      <c r="BL1" s="68" t="s">
         <v>172</v>
       </c>
-      <c r="BM1" s="73" t="s">
+      <c r="BM1" s="68" t="s">
         <v>173</v>
       </c>
-      <c r="BN1" s="73" t="s">
+      <c r="BN1" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="BO1" s="73" t="s">
+      <c r="BO1" s="68" t="s">
         <v>175</v>
       </c>
-      <c r="BP1" s="73" t="s">
+      <c r="BP1" s="68" t="s">
         <v>176</v>
       </c>
-      <c r="BQ1" s="73" t="s">
+      <c r="BQ1" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="BR1" s="73" t="s">
+      <c r="BR1" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="BS1" s="73" t="s">
+      <c r="BS1" s="68" t="s">
         <v>179</v>
       </c>
-      <c r="BT1" s="73" t="s">
+      <c r="BT1" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="BU1" s="73" t="s">
+      <c r="BU1" s="68" t="s">
         <v>181</v>
       </c>
-      <c r="BV1" s="73" t="s">
+      <c r="BV1" s="68" t="s">
         <v>182</v>
       </c>
-      <c r="BW1" s="73" t="s">
+      <c r="BW1" s="68" t="s">
         <v>183</v>
       </c>
-      <c r="BX1" s="73" t="s">
+      <c r="BX1" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="BY1" s="73" t="s">
+      <c r="BY1" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="BZ1" s="73" t="s">
+      <c r="BZ1" s="68" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:78">
-      <c r="A2" s="43" t="s">
-        <v>187</v>
+      <c r="A2" t="s">
+        <v>188</v>
       </c>
       <c r="B2" s="16">
         <v>0.46123317555555554</v>
@@ -43515,7 +43525,7 @@
     </row>
     <row r="3" spans="1:78">
       <c r="A3" s="43" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B3" s="16">
         <v>0.45972958189027197</v>
@@ -43751,7 +43761,7 @@
     </row>
     <row r="4" spans="1:78">
       <c r="A4" s="43" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B4" s="16">
         <v>0.10730229460580915</v>
@@ -43987,7 +43997,7 @@
     </row>
     <row r="5" spans="1:78">
       <c r="A5" s="43" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B5" s="16">
         <v>1.3085025300000001E-2</v>
@@ -44223,7 +44233,7 @@
     </row>
     <row r="6" spans="1:78">
       <c r="A6" s="43" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B6" s="16">
         <v>1.6113355255878287E-2</v>
@@ -44459,7 +44469,7 @@
     </row>
     <row r="7" spans="1:78">
       <c r="A7" s="43" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B7" s="16">
         <v>6.556918418626094E-3</v>
@@ -44694,8 +44704,8 @@
       </c>
     </row>
     <row r="8" spans="1:78">
-      <c r="A8" s="43" t="s">
-        <v>193</v>
+      <c r="A8" t="s">
+        <v>194</v>
       </c>
       <c r="B8" s="19">
         <f>1-B9-B10-B11</f>
@@ -45007,8 +45017,8 @@
       </c>
     </row>
     <row r="9" spans="1:78">
-      <c r="A9" s="43" t="s">
-        <v>194</v>
+      <c r="A9" t="s">
+        <v>195</v>
       </c>
       <c r="B9" s="19">
         <v>6.0100655000000003E-2</v>
@@ -45243,8 +45253,8 @@
       </c>
     </row>
     <row r="10" spans="1:78">
-      <c r="A10" s="43" t="s">
-        <v>195</v>
+      <c r="A10" t="s">
+        <v>196</v>
       </c>
       <c r="B10" s="19">
         <v>2.9092734138658451E-2</v>
@@ -45479,8 +45489,8 @@
       </c>
     </row>
     <row r="11" spans="1:78">
-      <c r="A11" s="43" t="s">
-        <v>196</v>
+      <c r="A11" t="s">
+        <v>197</v>
       </c>
       <c r="B11" s="19">
         <v>3.0825112104717448E-2</v>
@@ -45715,8 +45725,8 @@
       </c>
     </row>
     <row r="12" spans="1:78">
-      <c r="A12" s="43" t="s">
-        <v>197</v>
+      <c r="A12" t="s">
+        <v>198</v>
       </c>
       <c r="B12" s="19">
         <v>0.27098660868707558</v>
@@ -45951,8 +45961,8 @@
       </c>
     </row>
     <row r="13" spans="1:78">
-      <c r="A13" s="43" t="s">
-        <v>198</v>
+      <c r="A13" t="s">
+        <v>199</v>
       </c>
       <c r="B13" s="19">
         <v>0.40045511231243558</v>
@@ -46187,8 +46197,8 @@
       </c>
     </row>
     <row r="14" spans="1:78">
-      <c r="A14" s="43" t="s">
-        <v>199</v>
+      <c r="A14" t="s">
+        <v>200</v>
       </c>
       <c r="B14" s="19">
         <v>0.26523361803197193</v>
@@ -46423,8 +46433,8 @@
       </c>
     </row>
     <row r="15" spans="1:78">
-      <c r="A15" s="43" t="s">
-        <v>200</v>
+      <c r="A15" t="s">
+        <v>201</v>
       </c>
       <c r="B15" s="19">
         <v>6.332466096851691E-2</v>
@@ -46659,8 +46669,8 @@
       </c>
     </row>
     <row r="16" spans="1:78">
-      <c r="A16" s="43" t="s">
-        <v>201</v>
+      <c r="A16" t="s">
+        <v>202</v>
       </c>
       <c r="B16" s="19">
         <v>0.19678905786677919</v>
@@ -46895,8 +46905,8 @@
       </c>
     </row>
     <row r="17" spans="1:78">
-      <c r="A17" s="43" t="s">
-        <v>202</v>
+      <c r="A17" t="s">
+        <v>203</v>
       </c>
       <c r="B17" s="19">
         <v>0.49289260684674951</v>
@@ -47131,8 +47141,8 @@
       </c>
     </row>
     <row r="18" spans="1:78">
-      <c r="A18" s="43" t="s">
-        <v>203</v>
+      <c r="A18" t="s">
+        <v>204</v>
       </c>
       <c r="B18" s="19">
         <v>0.23365177087089373</v>
@@ -47367,8 +47377,8 @@
       </c>
     </row>
     <row r="19" spans="1:78">
-      <c r="A19" s="43" t="s">
-        <v>204</v>
+      <c r="A19" t="s">
+        <v>205</v>
       </c>
       <c r="B19" s="19">
         <v>5.5457709311840769E-2</v>
@@ -47603,8 +47613,8 @@
       </c>
     </row>
     <row r="20" spans="1:78">
-      <c r="A20" s="43" t="s">
-        <v>205</v>
+      <c r="A20" t="s">
+        <v>206</v>
       </c>
       <c r="B20" s="19">
         <v>2.1208855103736716E-2</v>
@@ -47854,253 +47864,253 @@
   <dimension ref="A1:BZ20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="36.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:78">
-      <c r="A1" s="74" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" s="73" t="s">
+      <c r="A1" s="69" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="73" t="s">
+      <c r="G1" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="73" t="s">
+      <c r="H1" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="I1" s="73" t="s">
+      <c r="I1" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="J1" s="73" t="s">
+      <c r="J1" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="73" t="s">
+      <c r="K1" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="L1" s="73" t="s">
+      <c r="L1" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="M1" s="73" t="s">
+      <c r="M1" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="N1" s="73" t="s">
+      <c r="N1" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="O1" s="73" t="s">
+      <c r="O1" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="P1" s="73" t="s">
+      <c r="P1" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="Q1" s="73" t="s">
+      <c r="Q1" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="R1" s="73" t="s">
+      <c r="R1" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="S1" s="73" t="s">
+      <c r="S1" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="T1" s="73" t="s">
+      <c r="T1" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="U1" s="73" t="s">
+      <c r="U1" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="V1" s="73" t="s">
+      <c r="V1" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="W1" s="73" t="s">
+      <c r="W1" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="X1" s="73" t="s">
+      <c r="X1" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="Y1" s="73" t="s">
+      <c r="Y1" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="Z1" s="73" t="s">
+      <c r="Z1" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="AA1" s="73" t="s">
+      <c r="AA1" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="AB1" s="73" t="s">
+      <c r="AB1" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="AC1" s="73" t="s">
+      <c r="AC1" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="AD1" s="73" t="s">
+      <c r="AD1" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="AE1" s="73" t="s">
+      <c r="AE1" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="AF1" s="73" t="s">
+      <c r="AF1" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="AG1" s="73" t="s">
+      <c r="AG1" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="AH1" s="73" t="s">
+      <c r="AH1" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="AI1" s="73" t="s">
+      <c r="AI1" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="AJ1" s="73" t="s">
+      <c r="AJ1" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="AK1" s="73" t="s">
+      <c r="AK1" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="AL1" s="73" t="s">
+      <c r="AL1" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="AM1" s="73" t="s">
+      <c r="AM1" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="AN1" s="73" t="s">
+      <c r="AN1" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="AO1" s="73" t="s">
+      <c r="AO1" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="AP1" s="73" t="s">
+      <c r="AP1" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="AQ1" s="73" t="s">
+      <c r="AQ1" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="AR1" s="73" t="s">
+      <c r="AR1" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="AS1" s="73" t="s">
+      <c r="AS1" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="AT1" s="73" t="s">
+      <c r="AT1" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="AU1" s="73" t="s">
+      <c r="AU1" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="AV1" s="73" t="s">
+      <c r="AV1" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="AW1" s="73" t="s">
+      <c r="AW1" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="AX1" s="73" t="s">
+      <c r="AX1" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="AY1" s="73" t="s">
+      <c r="AY1" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="AZ1" s="73" t="s">
+      <c r="AZ1" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="BA1" s="73" t="s">
+      <c r="BA1" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="BB1" s="73" t="s">
+      <c r="BB1" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="BC1" s="73" t="s">
+      <c r="BC1" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="BD1" s="73" t="s">
+      <c r="BD1" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="BE1" s="73" t="s">
+      <c r="BE1" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="BF1" s="73" t="s">
+      <c r="BF1" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="BG1" s="73" t="s">
+      <c r="BG1" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="BH1" s="73" t="s">
+      <c r="BH1" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="BI1" s="73" t="s">
+      <c r="BI1" s="68" t="s">
         <v>169</v>
       </c>
-      <c r="BJ1" s="73" t="s">
+      <c r="BJ1" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="BK1" s="73" t="s">
+      <c r="BK1" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="BL1" s="73" t="s">
+      <c r="BL1" s="68" t="s">
         <v>172</v>
       </c>
-      <c r="BM1" s="73" t="s">
+      <c r="BM1" s="68" t="s">
         <v>173</v>
       </c>
-      <c r="BN1" s="73" t="s">
+      <c r="BN1" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="BO1" s="73" t="s">
+      <c r="BO1" s="68" t="s">
         <v>175</v>
       </c>
-      <c r="BP1" s="73" t="s">
+      <c r="BP1" s="68" t="s">
         <v>176</v>
       </c>
-      <c r="BQ1" s="73" t="s">
+      <c r="BQ1" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="BR1" s="73" t="s">
+      <c r="BR1" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="BS1" s="73" t="s">
+      <c r="BS1" s="68" t="s">
         <v>179</v>
       </c>
-      <c r="BT1" s="73" t="s">
+      <c r="BT1" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="BU1" s="73" t="s">
+      <c r="BU1" s="68" t="s">
         <v>181</v>
       </c>
-      <c r="BV1" s="73" t="s">
+      <c r="BV1" s="68" t="s">
         <v>182</v>
       </c>
-      <c r="BW1" s="73" t="s">
+      <c r="BW1" s="68" t="s">
         <v>183</v>
       </c>
-      <c r="BX1" s="73" t="s">
+      <c r="BX1" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="BY1" s="73" t="s">
+      <c r="BY1" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="BZ1" s="73" t="s">
+      <c r="BZ1" s="68" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:78">
-      <c r="A2" s="43" t="s">
-        <v>187</v>
+      <c r="A2" t="s">
+        <v>188</v>
       </c>
       <c r="B2" s="16">
         <v>0.45283880999999998</v>
@@ -48336,7 +48346,7 @@
     </row>
     <row r="3" spans="1:78">
       <c r="A3" s="43" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B3" s="16">
         <v>0.42211928610419547</v>
@@ -48572,7 +48582,7 @@
     </row>
     <row r="4" spans="1:78">
       <c r="A4" s="43" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B4" s="16">
         <v>0.11589181120331951</v>
@@ -48808,7 +48818,7 @@
     </row>
     <row r="5" spans="1:78">
       <c r="A5" s="43" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B5" s="16">
         <v>1.8003373900000001E-2</v>
@@ -49044,7 +49054,7 @@
     </row>
     <row r="6" spans="1:78">
       <c r="A6" s="43" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B6" s="16">
         <v>1.7046995746887967E-2</v>
@@ -49280,7 +49290,7 @@
     </row>
     <row r="7" spans="1:78">
       <c r="A7" s="43" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B7" s="16">
         <v>7.1973158252650986E-3</v>
@@ -49515,8 +49525,8 @@
       </c>
     </row>
     <row r="8" spans="1:78">
-      <c r="A8" s="43" t="s">
-        <v>193</v>
+      <c r="A8" t="s">
+        <v>194</v>
       </c>
       <c r="B8" s="19">
         <v>0.84279687243273871</v>
@@ -49751,8 +49761,8 @@
       </c>
     </row>
     <row r="9" spans="1:78">
-      <c r="A9" s="43" t="s">
-        <v>194</v>
+      <c r="A9" t="s">
+        <v>195</v>
       </c>
       <c r="B9" s="19">
         <v>0.10007314</v>
@@ -49987,8 +49997,8 @@
       </c>
     </row>
     <row r="10" spans="1:78">
-      <c r="A10" s="43" t="s">
-        <v>195</v>
+      <c r="A10" t="s">
+        <v>196</v>
       </c>
       <c r="B10" s="19">
         <v>2.4982911070942117E-2</v>
@@ -50223,8 +50233,8 @@
       </c>
     </row>
     <row r="11" spans="1:78">
-      <c r="A11" s="43" t="s">
-        <v>196</v>
+      <c r="A11" t="s">
+        <v>197</v>
       </c>
       <c r="B11" s="19">
         <v>2.7237013371493549E-2</v>
@@ -50459,8 +50469,8 @@
       </c>
     </row>
     <row r="12" spans="1:78">
-      <c r="A12" s="43" t="s">
-        <v>197</v>
+      <c r="A12" t="s">
+        <v>198</v>
       </c>
       <c r="B12" s="19">
         <v>0.28108567599629974</v>
@@ -50695,8 +50705,8 @@
       </c>
     </row>
     <row r="13" spans="1:78">
-      <c r="A13" s="43" t="s">
-        <v>198</v>
+      <c r="A13" t="s">
+        <v>199</v>
       </c>
       <c r="B13" s="19">
         <v>0.41205620815670602</v>
@@ -50931,8 +50941,8 @@
       </c>
     </row>
     <row r="14" spans="1:78">
-      <c r="A14" s="43" t="s">
-        <v>199</v>
+      <c r="A14" t="s">
+        <v>200</v>
       </c>
       <c r="B14" s="19">
         <v>0.24727550991716526</v>
@@ -51167,8 +51177,8 @@
       </c>
     </row>
     <row r="15" spans="1:78">
-      <c r="A15" s="43" t="s">
-        <v>200</v>
+      <c r="A15" t="s">
+        <v>201</v>
       </c>
       <c r="B15" s="19">
         <v>5.9582605929828961E-2</v>
@@ -51403,8 +51413,8 @@
       </c>
     </row>
     <row r="16" spans="1:78">
-      <c r="A16" s="43" t="s">
-        <v>201</v>
+      <c r="A16" t="s">
+        <v>202</v>
       </c>
       <c r="B16" s="19">
         <v>0.19464720345205877</v>
@@ -51639,8 +51649,8 @@
       </c>
     </row>
     <row r="17" spans="1:78">
-      <c r="A17" s="43" t="s">
-        <v>202</v>
+      <c r="A17" t="s">
+        <v>203</v>
       </c>
       <c r="B17" s="19">
         <v>0.4786354953975227</v>
@@ -51875,8 +51885,8 @@
       </c>
     </row>
     <row r="18" spans="1:78">
-      <c r="A18" s="43" t="s">
-        <v>203</v>
+      <c r="A18" t="s">
+        <v>204</v>
       </c>
       <c r="B18" s="19">
         <v>0.24864135692466102</v>
@@ -52111,8 +52121,8 @@
       </c>
     </row>
     <row r="19" spans="1:78">
-      <c r="A19" s="43" t="s">
-        <v>204</v>
+      <c r="A19" t="s">
+        <v>205</v>
       </c>
       <c r="B19" s="19">
         <v>5.6375671342827859E-2</v>
@@ -52347,8 +52357,8 @@
       </c>
     </row>
     <row r="20" spans="1:78">
-      <c r="A20" s="43" t="s">
-        <v>205</v>
+      <c r="A20" t="s">
+        <v>206</v>
       </c>
       <c r="B20" s="19">
         <v>2.1700272882929656E-2</v>
@@ -52597,254 +52607,254 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BZ20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="BI1" workbookViewId="0">
+      <selection activeCell="BZ1" sqref="BZ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="36.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:78">
-      <c r="A1" s="74" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" s="75" t="s">
+      <c r="A1" s="69" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="75" t="s">
+      <c r="H1" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="I1" s="75" t="s">
+      <c r="I1" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="J1" s="75" t="s">
+      <c r="J1" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="75" t="s">
+      <c r="K1" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="L1" s="75" t="s">
+      <c r="L1" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="M1" s="75" t="s">
+      <c r="M1" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="N1" s="75" t="s">
+      <c r="N1" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="O1" s="75" t="s">
+      <c r="O1" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="P1" s="75" t="s">
+      <c r="P1" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="Q1" s="75" t="s">
+      <c r="Q1" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="R1" s="75" t="s">
+      <c r="R1" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="S1" s="75" t="s">
+      <c r="S1" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="T1" s="75" t="s">
+      <c r="T1" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="U1" s="75" t="s">
+      <c r="U1" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="V1" s="75" t="s">
+      <c r="V1" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="W1" s="75" t="s">
+      <c r="W1" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="X1" s="75" t="s">
+      <c r="X1" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="Y1" s="75" t="s">
+      <c r="Y1" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="Z1" s="75" t="s">
+      <c r="Z1" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="AA1" s="75" t="s">
+      <c r="AA1" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="AB1" s="75" t="s">
+      <c r="AB1" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="AC1" s="75" t="s">
+      <c r="AC1" s="70" t="s">
         <v>137</v>
       </c>
-      <c r="AD1" s="75" t="s">
+      <c r="AD1" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="AE1" s="75" t="s">
+      <c r="AE1" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="AF1" s="75" t="s">
+      <c r="AF1" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="AG1" s="75" t="s">
+      <c r="AG1" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="AH1" s="75" t="s">
+      <c r="AH1" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="AI1" s="75" t="s">
+      <c r="AI1" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="AJ1" s="75" t="s">
+      <c r="AJ1" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="AK1" s="75" t="s">
+      <c r="AK1" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="AL1" s="75" t="s">
+      <c r="AL1" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="AM1" s="75" t="s">
+      <c r="AM1" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="AN1" s="75" t="s">
+      <c r="AN1" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="AO1" s="75" t="s">
+      <c r="AO1" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="AP1" s="75" t="s">
+      <c r="AP1" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="AQ1" s="75" t="s">
+      <c r="AQ1" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="AR1" s="75" t="s">
+      <c r="AR1" s="70" t="s">
         <v>152</v>
       </c>
-      <c r="AS1" s="75" t="s">
+      <c r="AS1" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="AT1" s="75" t="s">
+      <c r="AT1" s="70" t="s">
         <v>154</v>
       </c>
-      <c r="AU1" s="75" t="s">
+      <c r="AU1" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="AV1" s="75" t="s">
+      <c r="AV1" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="AW1" s="75" t="s">
+      <c r="AW1" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="AX1" s="75" t="s">
+      <c r="AX1" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="AY1" s="75" t="s">
+      <c r="AY1" s="70" t="s">
         <v>159</v>
       </c>
-      <c r="AZ1" s="75" t="s">
+      <c r="AZ1" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="BA1" s="75" t="s">
+      <c r="BA1" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="BB1" s="75" t="s">
+      <c r="BB1" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="BC1" s="75" t="s">
+      <c r="BC1" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="BD1" s="75" t="s">
+      <c r="BD1" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="BE1" s="75" t="s">
+      <c r="BE1" s="70" t="s">
         <v>165</v>
       </c>
-      <c r="BF1" s="75" t="s">
+      <c r="BF1" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="BG1" s="75" t="s">
+      <c r="BG1" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="BH1" s="75" t="s">
+      <c r="BH1" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="BI1" s="75" t="s">
+      <c r="BI1" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="BJ1" s="75" t="s">
+      <c r="BJ1" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="BK1" s="75" t="s">
+      <c r="BK1" s="70" t="s">
         <v>171</v>
       </c>
-      <c r="BL1" s="75" t="s">
+      <c r="BL1" s="70" t="s">
         <v>172</v>
       </c>
-      <c r="BM1" s="75" t="s">
+      <c r="BM1" s="70" t="s">
         <v>173</v>
       </c>
-      <c r="BN1" s="75" t="s">
+      <c r="BN1" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="BO1" s="75" t="s">
+      <c r="BO1" s="70" t="s">
         <v>175</v>
       </c>
-      <c r="BP1" s="75" t="s">
+      <c r="BP1" s="70" t="s">
         <v>176</v>
       </c>
-      <c r="BQ1" s="75" t="s">
+      <c r="BQ1" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="BR1" s="75" t="s">
+      <c r="BR1" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="BS1" s="75" t="s">
+      <c r="BS1" s="70" t="s">
         <v>179</v>
       </c>
-      <c r="BT1" s="75" t="s">
+      <c r="BT1" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="BU1" s="75" t="s">
+      <c r="BU1" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="BV1" s="75" t="s">
+      <c r="BV1" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="BW1" s="75" t="s">
+      <c r="BW1" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="BX1" s="75" t="s">
+      <c r="BX1" s="70" t="s">
         <v>184</v>
       </c>
-      <c r="BY1" s="75" t="s">
+      <c r="BY1" s="70" t="s">
         <v>185</v>
       </c>
-      <c r="BZ1" s="75" t="s">
+      <c r="BZ1" s="70" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:78">
-      <c r="A2" s="76" t="s">
-        <v>187</v>
+      <c r="A2" t="s">
+        <v>188</v>
       </c>
       <c r="B2" s="13">
         <v>0.44444444444444442</v>
@@ -53079,8 +53089,8 @@
       </c>
     </row>
     <row r="3" spans="1:78">
-      <c r="A3" s="76" t="s">
-        <v>188</v>
+      <c r="A3" s="43" t="s">
+        <v>189</v>
       </c>
       <c r="B3" s="13">
         <v>0.38450899031811897</v>
@@ -53315,8 +53325,8 @@
       </c>
     </row>
     <row r="4" spans="1:78">
-      <c r="A4" s="76" t="s">
-        <v>189</v>
+      <c r="A4" s="43" t="s">
+        <v>190</v>
       </c>
       <c r="B4" s="13">
         <v>0.12448132780082988</v>
@@ -53551,8 +53561,8 @@
       </c>
     </row>
     <row r="5" spans="1:78">
-      <c r="A5" s="76" t="s">
-        <v>190</v>
+      <c r="A5" s="43" t="s">
+        <v>191</v>
       </c>
       <c r="B5" s="13">
         <v>2.0746887966804978E-2</v>
@@ -53787,8 +53797,8 @@
       </c>
     </row>
     <row r="6" spans="1:78">
-      <c r="A6" s="76" t="s">
-        <v>191</v>
+      <c r="A6" s="43" t="s">
+        <v>192</v>
       </c>
       <c r="B6" s="13">
         <v>1.7980636237897647E-2</v>
@@ -54023,8 +54033,8 @@
       </c>
     </row>
     <row r="7" spans="1:78">
-      <c r="A7" s="76" t="s">
-        <v>192</v>
+      <c r="A7" s="43" t="s">
+        <v>193</v>
       </c>
       <c r="B7" s="36">
         <v>7.8377132319041032E-3</v>
@@ -54259,8 +54269,8 @@
       </c>
     </row>
     <row r="8" spans="1:78">
-      <c r="A8" s="76" t="s">
-        <v>193</v>
+      <c r="A8" t="s">
+        <v>194</v>
       </c>
       <c r="B8" s="39">
         <v>0.87</v>
@@ -54495,8 +54505,8 @@
       </c>
     </row>
     <row r="9" spans="1:78">
-      <c r="A9" s="76" t="s">
-        <v>194</v>
+      <c r="A9" t="s">
+        <v>195</v>
       </c>
       <c r="B9" s="13">
         <v>6.4412973960712661E-2</v>
@@ -54731,8 +54741,8 @@
       </c>
     </row>
     <row r="10" spans="1:78">
-      <c r="A10" s="76" t="s">
-        <v>195</v>
+      <c r="A10" t="s">
+        <v>196</v>
       </c>
       <c r="B10" s="13">
         <v>3.2977957195085103E-2</v>
@@ -54967,8 +54977,8 @@
       </c>
     </row>
     <row r="11" spans="1:78">
-      <c r="A11" s="76" t="s">
-        <v>196</v>
+      <c r="A11" t="s">
+        <v>197</v>
       </c>
       <c r="B11" s="36">
         <v>3.2609068844202241E-2</v>
@@ -55203,8 +55213,8 @@
       </c>
     </row>
     <row r="12" spans="1:78">
-      <c r="A12" s="76" t="s">
-        <v>197</v>
+      <c r="A12" t="s">
+        <v>198</v>
       </c>
       <c r="B12" s="39">
         <v>0.27411831228426398</v>
@@ -55439,8 +55449,8 @@
       </c>
     </row>
     <row r="13" spans="1:78">
-      <c r="A13" s="76" t="s">
-        <v>198</v>
+      <c r="A13" t="s">
+        <v>199</v>
       </c>
       <c r="B13" s="13">
         <v>0.40100859126903554</v>
@@ -55675,8 +55685,8 @@
       </c>
     </row>
     <row r="14" spans="1:78">
-      <c r="A14" s="76" t="s">
-        <v>199</v>
+      <c r="A14" t="s">
+        <v>200</v>
       </c>
       <c r="B14" s="13">
         <v>0.26222544340101522</v>
@@ -55911,8 +55921,8 @@
       </c>
     </row>
     <row r="15" spans="1:78">
-      <c r="A15" s="76" t="s">
-        <v>200</v>
+      <c r="A15" t="s">
+        <v>201</v>
       </c>
       <c r="B15" s="36">
         <v>6.2647653045685273E-2</v>
@@ -56147,8 +56157,8 @@
       </c>
     </row>
     <row r="16" spans="1:78">
-      <c r="A16" s="76" t="s">
-        <v>201</v>
+      <c r="A16" t="s">
+        <v>202</v>
       </c>
       <c r="B16" s="39">
         <v>0.19453980622222186</v>
@@ -56383,8 +56393,8 @@
       </c>
     </row>
     <row r="17" spans="1:78">
-      <c r="A17" s="76" t="s">
-        <v>202</v>
+      <c r="A17" t="s">
+        <v>203</v>
       </c>
       <c r="B17" s="13">
         <v>0.49358569127314855</v>
@@ -56619,8 +56629,8 @@
       </c>
     </row>
     <row r="18" spans="1:78">
-      <c r="A18" s="76" t="s">
-        <v>203</v>
+      <c r="A18" t="s">
+        <v>204</v>
       </c>
       <c r="B18" s="13">
         <v>0.23670040028703701</v>
@@ -56855,8 +56865,8 @@
       </c>
     </row>
     <row r="19" spans="1:78">
-      <c r="A19" s="76" t="s">
-        <v>204</v>
+      <c r="A19" t="s">
+        <v>205</v>
       </c>
       <c r="B19" s="13">
         <v>5.4630854999999999E-2</v>
@@ -57091,8 +57101,8 @@
       </c>
     </row>
     <row r="20" spans="1:78">
-      <c r="A20" s="76" t="s">
-        <v>205</v>
+      <c r="A20" t="s">
+        <v>206</v>
       </c>
       <c r="B20" s="36">
         <v>2.054324721759259E-2</v>
@@ -57341,254 +57351,255 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BZ20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:78">
-      <c r="A1" s="74" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" s="73" t="s">
+      <c r="A1" s="69" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="73" t="s">
+      <c r="G1" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="73" t="s">
+      <c r="H1" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="I1" s="73" t="s">
+      <c r="I1" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="J1" s="73" t="s">
+      <c r="J1" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="73" t="s">
+      <c r="K1" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="L1" s="73" t="s">
+      <c r="L1" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="M1" s="73" t="s">
+      <c r="M1" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="N1" s="73" t="s">
+      <c r="N1" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="O1" s="73" t="s">
+      <c r="O1" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="P1" s="73" t="s">
+      <c r="P1" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="Q1" s="73" t="s">
+      <c r="Q1" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="R1" s="73" t="s">
+      <c r="R1" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="S1" s="73" t="s">
+      <c r="S1" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="T1" s="73" t="s">
+      <c r="T1" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="U1" s="73" t="s">
+      <c r="U1" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="V1" s="73" t="s">
+      <c r="V1" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="W1" s="73" t="s">
+      <c r="W1" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="X1" s="73" t="s">
+      <c r="X1" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="Y1" s="73" t="s">
+      <c r="Y1" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="Z1" s="73" t="s">
+      <c r="Z1" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="AA1" s="73" t="s">
+      <c r="AA1" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="AB1" s="73" t="s">
+      <c r="AB1" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="AC1" s="73" t="s">
+      <c r="AC1" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="AD1" s="73" t="s">
+      <c r="AD1" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="AE1" s="73" t="s">
+      <c r="AE1" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="AF1" s="73" t="s">
+      <c r="AF1" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="AG1" s="73" t="s">
+      <c r="AG1" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="AH1" s="73" t="s">
+      <c r="AH1" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="AI1" s="73" t="s">
+      <c r="AI1" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="AJ1" s="73" t="s">
+      <c r="AJ1" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="AK1" s="73" t="s">
+      <c r="AK1" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="AL1" s="73" t="s">
+      <c r="AL1" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="AM1" s="73" t="s">
+      <c r="AM1" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="AN1" s="73" t="s">
+      <c r="AN1" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="AO1" s="73" t="s">
+      <c r="AO1" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="AP1" s="73" t="s">
+      <c r="AP1" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="AQ1" s="73" t="s">
+      <c r="AQ1" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="AR1" s="73" t="s">
+      <c r="AR1" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="AS1" s="73" t="s">
+      <c r="AS1" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="AT1" s="73" t="s">
+      <c r="AT1" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="AU1" s="73" t="s">
+      <c r="AU1" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="AV1" s="73" t="s">
+      <c r="AV1" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="AW1" s="73" t="s">
+      <c r="AW1" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="AX1" s="73" t="s">
+      <c r="AX1" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="AY1" s="73" t="s">
+      <c r="AY1" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="AZ1" s="73" t="s">
+      <c r="AZ1" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="BA1" s="73" t="s">
+      <c r="BA1" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="BB1" s="73" t="s">
+      <c r="BB1" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="BC1" s="73" t="s">
+      <c r="BC1" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="BD1" s="73" t="s">
+      <c r="BD1" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="BE1" s="73" t="s">
+      <c r="BE1" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="BF1" s="73" t="s">
+      <c r="BF1" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="BG1" s="73" t="s">
+      <c r="BG1" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="BH1" s="73" t="s">
+      <c r="BH1" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="BI1" s="73" t="s">
+      <c r="BI1" s="68" t="s">
         <v>169</v>
       </c>
-      <c r="BJ1" s="73" t="s">
+      <c r="BJ1" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="BK1" s="73" t="s">
+      <c r="BK1" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="BL1" s="73" t="s">
+      <c r="BL1" s="68" t="s">
         <v>172</v>
       </c>
-      <c r="BM1" s="73" t="s">
+      <c r="BM1" s="68" t="s">
         <v>173</v>
       </c>
-      <c r="BN1" s="73" t="s">
+      <c r="BN1" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="BO1" s="73" t="s">
+      <c r="BO1" s="68" t="s">
         <v>175</v>
       </c>
-      <c r="BP1" s="73" t="s">
+      <c r="BP1" s="68" t="s">
         <v>176</v>
       </c>
-      <c r="BQ1" s="73" t="s">
+      <c r="BQ1" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="BR1" s="73" t="s">
+      <c r="BR1" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="BS1" s="73" t="s">
+      <c r="BS1" s="68" t="s">
         <v>179</v>
       </c>
-      <c r="BT1" s="73" t="s">
+      <c r="BT1" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="BU1" s="73" t="s">
+      <c r="BU1" s="68" t="s">
         <v>181</v>
       </c>
-      <c r="BV1" s="73" t="s">
+      <c r="BV1" s="68" t="s">
         <v>182</v>
       </c>
-      <c r="BW1" s="73" t="s">
+      <c r="BW1" s="68" t="s">
         <v>183</v>
       </c>
-      <c r="BX1" s="73" t="s">
+      <c r="BX1" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="BY1" s="73" t="s">
+      <c r="BY1" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="BZ1" s="73" t="s">
+      <c r="BZ1" s="68" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:78">
-      <c r="A2" s="43" t="s">
-        <v>187</v>
+      <c r="A2" t="s">
+        <v>188</v>
       </c>
       <c r="B2" s="19">
         <v>0.42493590366314521</v>
@@ -57824,7 +57835,7 @@
     </row>
     <row r="3" spans="1:78">
       <c r="A3" s="43" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B3" s="19">
         <v>0.33650074265517821</v>
@@ -58060,7 +58071,7 @@
     </row>
     <row r="4" spans="1:78">
       <c r="A4" s="43" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B4" s="19">
         <v>0.14820170751977119</v>
@@ -58296,7 +58307,7 @@
     </row>
     <row r="5" spans="1:78">
       <c r="A5" s="43" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B5" s="19">
         <v>6.1011050562591158E-2</v>
@@ -58532,7 +58543,7 @@
     </row>
     <row r="6" spans="1:78">
       <c r="A6" s="43" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B6" s="19">
         <v>2.0095672477961547E-2</v>
@@ -58768,7 +58779,7 @@
     </row>
     <row r="7" spans="1:78">
       <c r="A7" s="43" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B7" s="37">
         <v>9.2549231213526414E-3</v>
@@ -59003,8 +59014,8 @@
       </c>
     </row>
     <row r="8" spans="1:78">
-      <c r="A8" s="43" t="s">
-        <v>193</v>
+      <c r="A8" t="s">
+        <v>194</v>
       </c>
       <c r="B8" s="19">
         <v>0.83147211452915004</v>
@@ -59239,8 +59250,8 @@
       </c>
     </row>
     <row r="9" spans="1:78">
-      <c r="A9" s="43" t="s">
-        <v>194</v>
+      <c r="A9" t="s">
+        <v>195</v>
       </c>
       <c r="B9" s="19">
         <v>9.1961893409248846E-2</v>
@@ -59475,8 +59486,8 @@
       </c>
     </row>
     <row r="10" spans="1:78">
-      <c r="A10" s="43" t="s">
-        <v>195</v>
+      <c r="A10" t="s">
+        <v>196</v>
       </c>
       <c r="B10" s="19">
         <v>3.7836082431198056E-2</v>
@@ -59711,8 +59722,8 @@
       </c>
     </row>
     <row r="11" spans="1:78">
-      <c r="A11" s="43" t="s">
-        <v>196</v>
+      <c r="A11" t="s">
+        <v>197</v>
       </c>
       <c r="B11" s="19">
         <v>3.8729909630403042E-2</v>
@@ -59947,8 +59958,8 @@
       </c>
     </row>
     <row r="12" spans="1:78">
-      <c r="A12" s="43" t="s">
-        <v>197</v>
+      <c r="A12" t="s">
+        <v>198</v>
       </c>
       <c r="B12" s="19">
         <v>0.25864034542930214</v>
@@ -60183,8 +60194,8 @@
       </c>
     </row>
     <row r="13" spans="1:78">
-      <c r="A13" s="43" t="s">
-        <v>198</v>
+      <c r="A13" t="s">
+        <v>199</v>
       </c>
       <c r="B13" s="19">
         <v>0.37036853148320908</v>
@@ -60419,8 +60430,8 @@
       </c>
     </row>
     <row r="14" spans="1:78">
-      <c r="A14" s="43" t="s">
-        <v>199</v>
+      <c r="A14" t="s">
+        <v>200</v>
       </c>
       <c r="B14" s="19">
         <v>0.30259657264611295</v>
@@ -60655,8 +60666,8 @@
       </c>
     </row>
     <row r="15" spans="1:78">
-      <c r="A15" s="43" t="s">
-        <v>200</v>
+      <c r="A15" t="s">
+        <v>201</v>
       </c>
       <c r="B15" s="19">
         <v>6.8394550441375837E-2</v>
@@ -60891,8 +60902,8 @@
       </c>
     </row>
     <row r="16" spans="1:78">
-      <c r="A16" s="43" t="s">
-        <v>201</v>
+      <c r="A16" t="s">
+        <v>202</v>
       </c>
       <c r="B16" s="19">
         <v>0.18426983326335375</v>
@@ -61127,8 +61138,8 @@
       </c>
     </row>
     <row r="17" spans="1:78">
-      <c r="A17" s="43" t="s">
-        <v>202</v>
+      <c r="A17" t="s">
+        <v>203</v>
       </c>
       <c r="B17" s="19">
         <v>0.48845337833451391</v>
@@ -61363,8 +61374,8 @@
       </c>
     </row>
     <row r="18" spans="1:78">
-      <c r="A18" s="43" t="s">
-        <v>203</v>
+      <c r="A18" t="s">
+        <v>204</v>
       </c>
       <c r="B18" s="19">
         <v>0.24408197257703645</v>
@@ -61599,8 +61610,8 @@
       </c>
     </row>
     <row r="19" spans="1:78">
-      <c r="A19" s="43" t="s">
-        <v>204</v>
+      <c r="A19" t="s">
+        <v>205</v>
       </c>
       <c r="B19" s="19">
         <v>6.0831992721645245E-2</v>
@@ -61835,8 +61846,8 @@
       </c>
     </row>
     <row r="20" spans="1:78">
-      <c r="A20" s="43" t="s">
-        <v>205</v>
+      <c r="A20" t="s">
+        <v>206</v>
       </c>
       <c r="B20" s="19">
         <v>2.2362823103450603E-2</v>
@@ -62086,250 +62097,253 @@
   <dimension ref="A1:BZ20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="36.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:78">
-      <c r="A1" s="74" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" s="73" t="s">
+      <c r="A1" s="69" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="73" t="s">
+      <c r="G1" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="73" t="s">
+      <c r="H1" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="I1" s="73" t="s">
+      <c r="I1" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="J1" s="73" t="s">
+      <c r="J1" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="73" t="s">
+      <c r="K1" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="L1" s="73" t="s">
+      <c r="L1" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="M1" s="73" t="s">
+      <c r="M1" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="N1" s="73" t="s">
+      <c r="N1" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="O1" s="73" t="s">
+      <c r="O1" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="P1" s="73" t="s">
+      <c r="P1" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="Q1" s="73" t="s">
+      <c r="Q1" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="R1" s="73" t="s">
+      <c r="R1" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="S1" s="73" t="s">
+      <c r="S1" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="T1" s="73" t="s">
+      <c r="T1" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="U1" s="73" t="s">
+      <c r="U1" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="V1" s="73" t="s">
+      <c r="V1" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="W1" s="73" t="s">
+      <c r="W1" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="X1" s="73" t="s">
+      <c r="X1" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="Y1" s="73" t="s">
+      <c r="Y1" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="Z1" s="73" t="s">
+      <c r="Z1" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="AA1" s="73" t="s">
+      <c r="AA1" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="AB1" s="73" t="s">
+      <c r="AB1" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="AC1" s="73" t="s">
+      <c r="AC1" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="AD1" s="73" t="s">
+      <c r="AD1" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="AE1" s="73" t="s">
+      <c r="AE1" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="AF1" s="73" t="s">
+      <c r="AF1" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="AG1" s="73" t="s">
+      <c r="AG1" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="AH1" s="73" t="s">
+      <c r="AH1" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="AI1" s="73" t="s">
+      <c r="AI1" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="AJ1" s="73" t="s">
+      <c r="AJ1" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="AK1" s="73" t="s">
+      <c r="AK1" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="AL1" s="73" t="s">
+      <c r="AL1" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="AM1" s="73" t="s">
+      <c r="AM1" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="AN1" s="73" t="s">
+      <c r="AN1" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="AO1" s="73" t="s">
+      <c r="AO1" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="AP1" s="73" t="s">
+      <c r="AP1" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="AQ1" s="73" t="s">
+      <c r="AQ1" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="AR1" s="73" t="s">
+      <c r="AR1" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="AS1" s="73" t="s">
+      <c r="AS1" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="AT1" s="73" t="s">
+      <c r="AT1" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="AU1" s="73" t="s">
+      <c r="AU1" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="AV1" s="73" t="s">
+      <c r="AV1" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="AW1" s="73" t="s">
+      <c r="AW1" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="AX1" s="73" t="s">
+      <c r="AX1" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="AY1" s="73" t="s">
+      <c r="AY1" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="AZ1" s="73" t="s">
+      <c r="AZ1" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="BA1" s="73" t="s">
+      <c r="BA1" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="BB1" s="73" t="s">
+      <c r="BB1" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="BC1" s="73" t="s">
+      <c r="BC1" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="BD1" s="73" t="s">
+      <c r="BD1" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="BE1" s="73" t="s">
+      <c r="BE1" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="BF1" s="73" t="s">
+      <c r="BF1" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="BG1" s="73" t="s">
+      <c r="BG1" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="BH1" s="73" t="s">
+      <c r="BH1" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="BI1" s="73" t="s">
+      <c r="BI1" s="68" t="s">
         <v>169</v>
       </c>
-      <c r="BJ1" s="73" t="s">
+      <c r="BJ1" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="BK1" s="73" t="s">
+      <c r="BK1" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="BL1" s="73" t="s">
+      <c r="BL1" s="68" t="s">
         <v>172</v>
       </c>
-      <c r="BM1" s="73" t="s">
+      <c r="BM1" s="68" t="s">
         <v>173</v>
       </c>
-      <c r="BN1" s="73" t="s">
+      <c r="BN1" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="BO1" s="73" t="s">
+      <c r="BO1" s="68" t="s">
         <v>175</v>
       </c>
-      <c r="BP1" s="73" t="s">
+      <c r="BP1" s="68" t="s">
         <v>176</v>
       </c>
-      <c r="BQ1" s="73" t="s">
+      <c r="BQ1" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="BR1" s="73" t="s">
+      <c r="BR1" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="BS1" s="73" t="s">
+      <c r="BS1" s="68" t="s">
         <v>179</v>
       </c>
-      <c r="BT1" s="73" t="s">
+      <c r="BT1" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="BU1" s="73" t="s">
+      <c r="BU1" s="68" t="s">
         <v>181</v>
       </c>
-      <c r="BV1" s="73" t="s">
+      <c r="BV1" s="68" t="s">
         <v>182</v>
       </c>
-      <c r="BW1" s="73" t="s">
+      <c r="BW1" s="68" t="s">
         <v>183</v>
       </c>
-      <c r="BX1" s="73" t="s">
+      <c r="BX1" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="BY1" s="73" t="s">
+      <c r="BY1" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="BZ1" s="73" t="s">
+      <c r="BZ1" s="68" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:78">
-      <c r="A2" s="43" t="s">
-        <v>187</v>
+      <c r="A2" t="s">
+        <v>188</v>
       </c>
       <c r="B2" s="19">
         <v>0.4178545927812316</v>
@@ -62565,7 +62579,7 @@
     </row>
     <row r="3" spans="1:78">
       <c r="A3" s="43" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B3" s="19">
         <v>0.28720565245079821</v>
@@ -62801,7 +62815,7 @@
     </row>
     <row r="4" spans="1:78">
       <c r="A4" s="43" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B4" s="19">
         <v>0.15657750185192734</v>
@@ -63037,7 +63051,7 @@
     </row>
     <row r="5" spans="1:78">
       <c r="A5" s="43" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B5" s="19">
         <v>0.10612469414195604</v>
@@ -63273,7 +63287,7 @@
     </row>
     <row r="6" spans="1:78">
       <c r="A6" s="43" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B6" s="19">
         <v>2.2433621506471334E-2</v>
@@ -63509,7 +63523,7 @@
     </row>
     <row r="7" spans="1:78">
       <c r="A7" s="43" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B7" s="19">
         <v>9.8039372676154875E-3</v>
@@ -63744,8 +63758,8 @@
       </c>
     </row>
     <row r="8" spans="1:78">
-      <c r="A8" s="43" t="s">
-        <v>193</v>
+      <c r="A8" t="s">
+        <v>194</v>
       </c>
       <c r="B8" s="19">
         <v>0.82779598292832457</v>
@@ -63980,8 +63994,8 @@
       </c>
     </row>
     <row r="9" spans="1:78">
-      <c r="A9" s="43" t="s">
-        <v>194</v>
+      <c r="A9" t="s">
+        <v>195</v>
       </c>
       <c r="B9" s="19">
         <v>9.020589365120732E-2</v>
@@ -64216,8 +64230,8 @@
       </c>
     </row>
     <row r="10" spans="1:78">
-      <c r="A10" s="43" t="s">
-        <v>195</v>
+      <c r="A10" t="s">
+        <v>196</v>
       </c>
       <c r="B10" s="19">
         <v>4.098214958451795E-2</v>
@@ -64452,8 +64466,8 @@
       </c>
     </row>
     <row r="11" spans="1:78">
-      <c r="A11" s="43" t="s">
-        <v>196</v>
+      <c r="A11" t="s">
+        <v>197</v>
       </c>
       <c r="B11" s="19">
         <v>4.1015973835950147E-2</v>
@@ -64688,8 +64702,8 @@
       </c>
     </row>
     <row r="12" spans="1:78">
-      <c r="A12" s="43" t="s">
-        <v>197</v>
+      <c r="A12" t="s">
+        <v>198</v>
       </c>
       <c r="B12" s="19">
         <v>0.25331495459168751</v>
@@ -64924,8 +64938,8 @@
       </c>
     </row>
     <row r="13" spans="1:78">
-      <c r="A13" s="43" t="s">
-        <v>198</v>
+      <c r="A13" t="s">
+        <v>199</v>
       </c>
       <c r="B13" s="19">
         <v>0.36370501307330183</v>
@@ -65160,8 +65174,8 @@
       </c>
     </row>
     <row r="14" spans="1:78">
-      <c r="A14" s="43" t="s">
-        <v>199</v>
+      <c r="A14" t="s">
+        <v>200</v>
       </c>
       <c r="B14" s="19">
         <v>0.31224087284678437</v>
@@ -65396,8 +65410,8 @@
       </c>
     </row>
     <row r="15" spans="1:78">
-      <c r="A15" s="43" t="s">
-        <v>200</v>
+      <c r="A15" t="s">
+        <v>201</v>
       </c>
       <c r="B15" s="19">
         <v>7.0739159488226275E-2</v>
@@ -65632,8 +65646,8 @@
       </c>
     </row>
     <row r="16" spans="1:78">
-      <c r="A16" s="43" t="s">
-        <v>201</v>
+      <c r="A16" t="s">
+        <v>202</v>
       </c>
       <c r="B16" s="19">
         <v>0.1774265319567262</v>
@@ -65868,8 +65882,8 @@
       </c>
     </row>
     <row r="17" spans="1:78">
-      <c r="A17" s="43" t="s">
-        <v>202</v>
+      <c r="A17" t="s">
+        <v>203</v>
       </c>
       <c r="B17" s="19">
         <v>0.45171856213840361</v>
@@ -66104,8 +66118,8 @@
       </c>
     </row>
     <row r="18" spans="1:78">
-      <c r="A18" s="43" t="s">
-        <v>203</v>
+      <c r="A18" t="s">
+        <v>204</v>
       </c>
       <c r="B18" s="19">
         <v>0.28418827057373719</v>
@@ -66340,8 +66354,8 @@
       </c>
     </row>
     <row r="19" spans="1:78">
-      <c r="A19" s="43" t="s">
-        <v>204</v>
+      <c r="A19" t="s">
+        <v>205</v>
       </c>
       <c r="B19" s="19">
         <v>6.2869146008068907E-2</v>
@@ -66576,8 +66590,8 @@
       </c>
     </row>
     <row r="20" spans="1:78">
-      <c r="A20" s="43" t="s">
-        <v>205</v>
+      <c r="A20" t="s">
+        <v>206</v>
       </c>
       <c r="B20" s="19">
         <v>2.379748932306407E-2</v>
@@ -66826,254 +66840,254 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BZ20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:78">
-      <c r="A1" s="74" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" s="73" t="s">
+      <c r="A1" s="69" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="73" t="s">
+      <c r="G1" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="73" t="s">
+      <c r="H1" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="I1" s="73" t="s">
+      <c r="I1" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="J1" s="73" t="s">
+      <c r="J1" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="73" t="s">
+      <c r="K1" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="L1" s="73" t="s">
+      <c r="L1" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="M1" s="73" t="s">
+      <c r="M1" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="N1" s="73" t="s">
+      <c r="N1" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="O1" s="73" t="s">
+      <c r="O1" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="P1" s="73" t="s">
+      <c r="P1" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="Q1" s="73" t="s">
+      <c r="Q1" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="R1" s="73" t="s">
+      <c r="R1" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="S1" s="73" t="s">
+      <c r="S1" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="T1" s="73" t="s">
+      <c r="T1" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="U1" s="73" t="s">
+      <c r="U1" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="V1" s="73" t="s">
+      <c r="V1" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="W1" s="73" t="s">
+      <c r="W1" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="X1" s="73" t="s">
+      <c r="X1" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="Y1" s="73" t="s">
+      <c r="Y1" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="Z1" s="73" t="s">
+      <c r="Z1" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="AA1" s="73" t="s">
+      <c r="AA1" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="AB1" s="73" t="s">
+      <c r="AB1" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="AC1" s="73" t="s">
+      <c r="AC1" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="AD1" s="73" t="s">
+      <c r="AD1" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="AE1" s="73" t="s">
+      <c r="AE1" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="AF1" s="73" t="s">
+      <c r="AF1" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="AG1" s="73" t="s">
+      <c r="AG1" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="AH1" s="73" t="s">
+      <c r="AH1" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="AI1" s="73" t="s">
+      <c r="AI1" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="AJ1" s="73" t="s">
+      <c r="AJ1" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="AK1" s="73" t="s">
+      <c r="AK1" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="AL1" s="73" t="s">
+      <c r="AL1" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="AM1" s="73" t="s">
+      <c r="AM1" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="AN1" s="73" t="s">
+      <c r="AN1" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="AO1" s="73" t="s">
+      <c r="AO1" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="AP1" s="73" t="s">
+      <c r="AP1" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="AQ1" s="73" t="s">
+      <c r="AQ1" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="AR1" s="73" t="s">
+      <c r="AR1" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="AS1" s="73" t="s">
+      <c r="AS1" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="AT1" s="73" t="s">
+      <c r="AT1" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="AU1" s="73" t="s">
+      <c r="AU1" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="AV1" s="73" t="s">
+      <c r="AV1" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="AW1" s="73" t="s">
+      <c r="AW1" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="AX1" s="73" t="s">
+      <c r="AX1" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="AY1" s="73" t="s">
+      <c r="AY1" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="AZ1" s="73" t="s">
+      <c r="AZ1" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="BA1" s="73" t="s">
+      <c r="BA1" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="BB1" s="73" t="s">
+      <c r="BB1" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="BC1" s="73" t="s">
+      <c r="BC1" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="BD1" s="73" t="s">
+      <c r="BD1" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="BE1" s="73" t="s">
+      <c r="BE1" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="BF1" s="73" t="s">
+      <c r="BF1" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="BG1" s="73" t="s">
+      <c r="BG1" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="BH1" s="73" t="s">
+      <c r="BH1" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="BI1" s="73" t="s">
+      <c r="BI1" s="68" t="s">
         <v>169</v>
       </c>
-      <c r="BJ1" s="73" t="s">
+      <c r="BJ1" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="BK1" s="73" t="s">
+      <c r="BK1" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="BL1" s="73" t="s">
+      <c r="BL1" s="68" t="s">
         <v>172</v>
       </c>
-      <c r="BM1" s="73" t="s">
+      <c r="BM1" s="68" t="s">
         <v>173</v>
       </c>
-      <c r="BN1" s="73" t="s">
+      <c r="BN1" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="BO1" s="73" t="s">
+      <c r="BO1" s="68" t="s">
         <v>175</v>
       </c>
-      <c r="BP1" s="73" t="s">
+      <c r="BP1" s="68" t="s">
         <v>176</v>
       </c>
-      <c r="BQ1" s="73" t="s">
+      <c r="BQ1" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="BR1" s="73" t="s">
+      <c r="BR1" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="BS1" s="73" t="s">
+      <c r="BS1" s="68" t="s">
         <v>179</v>
       </c>
-      <c r="BT1" s="73" t="s">
+      <c r="BT1" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="BU1" s="73" t="s">
+      <c r="BU1" s="68" t="s">
         <v>181</v>
       </c>
-      <c r="BV1" s="73" t="s">
+      <c r="BV1" s="68" t="s">
         <v>182</v>
       </c>
-      <c r="BW1" s="73" t="s">
+      <c r="BW1" s="68" t="s">
         <v>183</v>
       </c>
-      <c r="BX1" s="73" t="s">
+      <c r="BX1" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="BY1" s="73" t="s">
+      <c r="BY1" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="BZ1" s="73" t="s">
+      <c r="BZ1" s="68" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:78" ht="18">
-      <c r="A2" s="77" t="s">
-        <v>187</v>
+    <row r="2" spans="1:78">
+      <c r="A2" t="s">
+        <v>188</v>
       </c>
       <c r="B2" s="19">
         <v>0.41086698222222218</v>
@@ -67307,9 +67321,9 @@
         <v>0.42714357520797724</v>
       </c>
     </row>
-    <row r="3" spans="1:78" ht="18">
-      <c r="A3" s="77" t="s">
-        <v>188</v>
+    <row r="3" spans="1:78">
+      <c r="A3" s="43" t="s">
+        <v>189</v>
       </c>
       <c r="B3" s="19">
         <v>0.23406780717381293</v>
@@ -67543,9 +67557,9 @@
         <v>0.25567171026210822</v>
       </c>
     </row>
-    <row r="4" spans="1:78" ht="18">
-      <c r="A4" s="77" t="s">
-        <v>189</v>
+    <row r="4" spans="1:78">
+      <c r="A4" s="43" t="s">
+        <v>190</v>
       </c>
       <c r="B4" s="19">
         <v>0.15883939419087137</v>
@@ -67779,9 +67793,9 @@
         <v>0.14141777777777778</v>
       </c>
     </row>
-    <row r="5" spans="1:78" ht="18">
-      <c r="A5" s="77" t="s">
-        <v>190</v>
+    <row r="5" spans="1:78">
+      <c r="A5" s="43" t="s">
+        <v>191</v>
       </c>
       <c r="B5" s="19">
         <v>0.1641113153526971</v>
@@ -68015,9 +68029,9 @@
         <v>0.12969858621082622</v>
       </c>
     </row>
-    <row r="6" spans="1:78" ht="18">
-      <c r="A6" s="77" t="s">
-        <v>191</v>
+    <row r="6" spans="1:78">
+      <c r="A6" s="43" t="s">
+        <v>192</v>
       </c>
       <c r="B6" s="19">
         <v>2.1715198201936372E-2</v>
@@ -68251,9 +68265,9 @@
         <v>2.7676120797720798E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:78" ht="18">
-      <c r="A7" s="77" t="s">
-        <v>192</v>
+    <row r="7" spans="1:78">
+      <c r="A7" s="43" t="s">
+        <v>193</v>
       </c>
       <c r="B7" s="37">
         <v>1.039930285846012E-2</v>
@@ -68487,9 +68501,9 @@
         <v>1.8392229743589741E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:78" ht="18">
-      <c r="A8" s="77" t="s">
-        <v>193</v>
+    <row r="8" spans="1:78">
+      <c r="A8" t="s">
+        <v>194</v>
       </c>
       <c r="B8" s="19">
         <v>0.81017685120000005</v>
@@ -68723,9 +68737,9 @@
         <v>0.80530000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:78" ht="18">
-      <c r="A9" s="77" t="s">
-        <v>194</v>
+    <row r="9" spans="1:78">
+      <c r="A9" t="s">
+        <v>195</v>
       </c>
       <c r="B9" s="19">
         <v>0.10436246197417527</v>
@@ -68959,9 +68973,9 @@
         <v>9.5644167153780879E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:78" ht="18">
-      <c r="A10" s="77" t="s">
-        <v>195</v>
+    <row r="10" spans="1:78">
+      <c r="A10" t="s">
+        <v>196</v>
       </c>
       <c r="B10" s="19">
         <v>4.1725446083770129E-2</v>
@@ -69195,9 +69209,9 @@
         <v>3.1955832846219098E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:78" ht="18">
-      <c r="A11" s="77" t="s">
-        <v>196</v>
+    <row r="11" spans="1:78">
+      <c r="A11" t="s">
+        <v>197</v>
       </c>
       <c r="B11" s="37">
         <v>4.3735240742054551E-2</v>
@@ -69431,9 +69445,9 @@
         <v>6.7100000000000007E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:78" ht="18">
-      <c r="A12" s="77" t="s">
-        <v>197</v>
+    <row r="12" spans="1:78">
+      <c r="A12" t="s">
+        <v>198</v>
       </c>
       <c r="B12" s="19">
         <v>0.25431621647594921</v>
@@ -69667,9 +69681,9 @@
         <v>0.12529999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:78" ht="18">
-      <c r="A13" s="77" t="s">
-        <v>198</v>
+    <row r="13" spans="1:78">
+      <c r="A13" t="s">
+        <v>199</v>
       </c>
       <c r="B13" s="19">
         <v>0.3594777814822353</v>
@@ -69903,9 +69917,9 @@
         <v>0.43690000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:78" ht="18">
-      <c r="A14" s="77" t="s">
-        <v>199</v>
+    <row r="14" spans="1:78">
+      <c r="A14" t="s">
+        <v>200</v>
       </c>
       <c r="B14" s="19">
         <v>0.31617963950799111</v>
@@ -70139,9 +70153,9 @@
         <v>0.33900000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:78" ht="18">
-      <c r="A15" s="77" t="s">
-        <v>200</v>
+    <row r="15" spans="1:78">
+      <c r="A15" t="s">
+        <v>201</v>
       </c>
       <c r="B15" s="37">
         <v>7.0026362533824438E-2</v>
@@ -70375,9 +70389,9 @@
         <v>9.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:78" ht="18">
-      <c r="A16" s="77" t="s">
-        <v>201</v>
+    <row r="16" spans="1:78">
+      <c r="A16" t="s">
+        <v>202</v>
       </c>
       <c r="B16" s="19">
         <v>0.17591368779998029</v>
@@ -70611,9 +70625,9 @@
         <v>0.18770000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:78" ht="18">
-      <c r="A17" s="77" t="s">
-        <v>202</v>
+    <row r="17" spans="1:78">
+      <c r="A17" t="s">
+        <v>203</v>
       </c>
       <c r="B17" s="19">
         <v>0.49129341022087925</v>
@@ -70847,9 +70861,9 @@
         <v>0.4869</v>
       </c>
     </row>
-    <row r="18" spans="1:78" ht="18">
-      <c r="A18" s="77" t="s">
-        <v>203</v>
+    <row r="18" spans="1:78">
+      <c r="A18" t="s">
+        <v>204</v>
       </c>
       <c r="B18" s="19">
         <v>0.24928659999808278</v>
@@ -71083,9 +71097,9 @@
         <v>0.24929999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:78" ht="18">
-      <c r="A19" s="77" t="s">
-        <v>204</v>
+    <row r="19" spans="1:78">
+      <c r="A19" t="s">
+        <v>205</v>
       </c>
       <c r="B19" s="19">
         <v>6.06860679480885E-2</v>
@@ -71319,9 +71333,9 @@
         <v>5.7299999999999997E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:78" ht="18">
-      <c r="A20" s="77" t="s">
-        <v>205</v>
+    <row r="20" spans="1:78">
+      <c r="A20" t="s">
+        <v>206</v>
       </c>
       <c r="B20" s="37">
         <v>2.2820234032969171E-2</v>
